--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Agrn-Lrp4.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Agrn-Lrp4.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>33.7496652540716</v>
+        <v>33.79250833333333</v>
       </c>
       <c r="H2">
-        <v>33.7496652540716</v>
+        <v>101.377525</v>
       </c>
       <c r="I2">
-        <v>0.5909062800054221</v>
+        <v>0.588264251340987</v>
       </c>
       <c r="J2">
-        <v>0.5909062800054221</v>
+        <v>0.5882642513409871</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7697381550704619</v>
+        <v>0.7750113333333332</v>
       </c>
       <c r="N2">
-        <v>0.7697381550704619</v>
+        <v>2.325034</v>
       </c>
       <c r="O2">
-        <v>0.1066253318953106</v>
+        <v>0.09828779666416518</v>
       </c>
       <c r="P2">
-        <v>0.1066253318953106</v>
+        <v>0.09828779666416518</v>
       </c>
       <c r="Q2">
-        <v>25.97840506691475</v>
+        <v>26.18957694009444</v>
       </c>
       <c r="R2">
-        <v>25.97840506691475</v>
+        <v>235.7061924608499</v>
       </c>
       <c r="S2">
-        <v>0.06300557822460147</v>
+        <v>0.05781919712060029</v>
       </c>
       <c r="T2">
-        <v>0.06300557822460147</v>
+        <v>0.0578191971206003</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>33.7496652540716</v>
+        <v>33.79250833333333</v>
       </c>
       <c r="H3">
-        <v>33.7496652540716</v>
+        <v>101.377525</v>
       </c>
       <c r="I3">
-        <v>0.5909062800054221</v>
+        <v>0.588264251340987</v>
       </c>
       <c r="J3">
-        <v>0.5909062800054221</v>
+        <v>0.5882642513409871</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.51918167057483</v>
+        <v>1.544553333333333</v>
       </c>
       <c r="N3">
-        <v>1.51918167057483</v>
+        <v>4.63366</v>
       </c>
       <c r="O3">
-        <v>0.2104394186091577</v>
+        <v>0.1958819664103302</v>
       </c>
       <c r="P3">
-        <v>0.2104394186091577</v>
+        <v>0.1958819664103302</v>
       </c>
       <c r="Q3">
-        <v>51.27187284202179</v>
+        <v>52.19433138794444</v>
       </c>
       <c r="R3">
-        <v>51.27187284202179</v>
+        <v>469.7489824914999</v>
       </c>
       <c r="S3">
-        <v>0.1243499740168412</v>
+        <v>0.1152303583215733</v>
       </c>
       <c r="T3">
-        <v>0.1243499740168412</v>
+        <v>0.1152303583215733</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>33.7496652540716</v>
+        <v>33.79250833333333</v>
       </c>
       <c r="H4">
-        <v>33.7496652540716</v>
+        <v>101.377525</v>
       </c>
       <c r="I4">
-        <v>0.5909062800054221</v>
+        <v>0.588264251340987</v>
       </c>
       <c r="J4">
-        <v>0.5909062800054221</v>
+        <v>0.5882642513409871</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.962534858415599</v>
+        <v>1.033537666666667</v>
       </c>
       <c r="N4">
-        <v>0.962534858415599</v>
+        <v>3.100613</v>
       </c>
       <c r="O4">
-        <v>0.13333183247227</v>
+        <v>0.1310743929242614</v>
       </c>
       <c r="P4">
-        <v>0.13333183247227</v>
+        <v>0.1310743929242614</v>
       </c>
       <c r="Q4">
-        <v>32.48522926690167</v>
+        <v>34.92583021364722</v>
       </c>
       <c r="R4">
-        <v>32.48522926690167</v>
+        <v>314.332471922825</v>
       </c>
       <c r="S4">
-        <v>0.07878661713249523</v>
+        <v>0.07710637962356502</v>
       </c>
       <c r="T4">
-        <v>0.07878661713249523</v>
+        <v>0.07710637962356504</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>33.7496652540716</v>
+        <v>33.79250833333333</v>
       </c>
       <c r="H5">
-        <v>33.7496652540716</v>
+        <v>101.377525</v>
       </c>
       <c r="I5">
-        <v>0.5909062800054221</v>
+        <v>0.588264251340987</v>
       </c>
       <c r="J5">
-        <v>0.5909062800054221</v>
+        <v>0.5882642513409871</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.8711224823691</v>
+        <v>1.906809666666667</v>
       </c>
       <c r="N5">
-        <v>1.8711224823691</v>
+        <v>5.720429</v>
       </c>
       <c r="O5">
-        <v>0.2591908097385658</v>
+        <v>0.241823716291372</v>
       </c>
       <c r="P5">
-        <v>0.2591908097385658</v>
+        <v>0.241823716291372</v>
       </c>
       <c r="Q5">
-        <v>63.14975742932462</v>
+        <v>64.43588155091389</v>
       </c>
       <c r="R5">
-        <v>63.14975742932462</v>
+        <v>579.9229339582249</v>
       </c>
       <c r="S5">
-        <v>0.1531574771942091</v>
+        <v>0.1422562474206392</v>
       </c>
       <c r="T5">
-        <v>0.1531574771942091</v>
+        <v>0.1422562474206392</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>33.7496652540716</v>
+        <v>33.79250833333333</v>
       </c>
       <c r="H6">
-        <v>33.7496652540716</v>
+        <v>101.377525</v>
       </c>
       <c r="I6">
-        <v>0.5909062800054221</v>
+        <v>0.588264251340987</v>
       </c>
       <c r="J6">
-        <v>0.5909062800054221</v>
+        <v>0.5882642513409871</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.09651553310059</v>
+        <v>2.625210666666666</v>
       </c>
       <c r="N6">
-        <v>2.09651553310059</v>
+        <v>7.875632</v>
       </c>
       <c r="O6">
-        <v>0.2904126072846959</v>
+        <v>0.3329321277098712</v>
       </c>
       <c r="P6">
-        <v>0.2904126072846959</v>
+        <v>0.3329321277098712</v>
       </c>
       <c r="Q6">
-        <v>70.75669744210639</v>
+        <v>88.71245333008888</v>
       </c>
       <c r="R6">
-        <v>70.75669744210639</v>
+        <v>798.4120799707999</v>
       </c>
       <c r="S6">
-        <v>0.1716066334372752</v>
+        <v>0.1958520688546093</v>
       </c>
       <c r="T6">
-        <v>0.1716066334372752</v>
+        <v>0.1958520688546093</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.9419353101778</v>
+        <v>14.943524</v>
       </c>
       <c r="H7">
-        <v>14.9419353101778</v>
+        <v>44.830572</v>
       </c>
       <c r="I7">
-        <v>0.2616109921017262</v>
+        <v>0.260138752398702</v>
       </c>
       <c r="J7">
-        <v>0.2616109921017262</v>
+        <v>0.260138752398702</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.7697381550704619</v>
+        <v>0.7750113333333332</v>
       </c>
       <c r="N7">
-        <v>0.7697381550704619</v>
+        <v>2.325034</v>
       </c>
       <c r="O7">
-        <v>0.1066253318953106</v>
+        <v>0.09828779666416518</v>
       </c>
       <c r="P7">
-        <v>0.1066253318953106</v>
+        <v>0.09828779666416518</v>
       </c>
       <c r="Q7">
-        <v>11.50137771883845</v>
+        <v>11.58140045993867</v>
       </c>
       <c r="R7">
-        <v>11.50137771883845</v>
+        <v>104.232604139448</v>
       </c>
       <c r="S7">
-        <v>0.02789435886030803</v>
+        <v>0.02556846480023323</v>
       </c>
       <c r="T7">
-        <v>0.02789435886030803</v>
+        <v>0.02556846480023324</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.9419353101778</v>
+        <v>14.943524</v>
       </c>
       <c r="H8">
-        <v>14.9419353101778</v>
+        <v>44.830572</v>
       </c>
       <c r="I8">
-        <v>0.2616109921017262</v>
+        <v>0.260138752398702</v>
       </c>
       <c r="J8">
-        <v>0.2616109921017262</v>
+        <v>0.260138752398702</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.51918167057483</v>
+        <v>1.544553333333333</v>
       </c>
       <c r="N8">
-        <v>1.51918167057483</v>
+        <v>4.63366</v>
       </c>
       <c r="O8">
-        <v>0.2104394186091577</v>
+        <v>0.1958819664103302</v>
       </c>
       <c r="P8">
-        <v>0.2104394186091577</v>
+        <v>0.1958819664103302</v>
       </c>
       <c r="Q8">
-        <v>22.69951424613695</v>
+        <v>23.08106980594667</v>
       </c>
       <c r="R8">
-        <v>22.69951424613695</v>
+        <v>207.72962825352</v>
       </c>
       <c r="S8">
-        <v>0.05505326507965219</v>
+        <v>0.05095649035938775</v>
       </c>
       <c r="T8">
-        <v>0.05505326507965219</v>
+        <v>0.05095649035938776</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.9419353101778</v>
+        <v>14.943524</v>
       </c>
       <c r="H9">
-        <v>14.9419353101778</v>
+        <v>44.830572</v>
       </c>
       <c r="I9">
-        <v>0.2616109921017262</v>
+        <v>0.260138752398702</v>
       </c>
       <c r="J9">
-        <v>0.2616109921017262</v>
+        <v>0.260138752398702</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.962534858415599</v>
+        <v>1.033537666666667</v>
       </c>
       <c r="N9">
-        <v>0.962534858415599</v>
+        <v>3.100613</v>
       </c>
       <c r="O9">
-        <v>0.13333183247227</v>
+        <v>0.1310743929242614</v>
       </c>
       <c r="P9">
-        <v>0.13333183247227</v>
+        <v>0.1310743929242614</v>
       </c>
       <c r="Q9">
-        <v>14.38213358823703</v>
+        <v>15.44469492673734</v>
       </c>
       <c r="R9">
-        <v>14.38213358823703</v>
+        <v>139.002254340636</v>
       </c>
       <c r="S9">
-        <v>0.03488107297181171</v>
+        <v>0.03409752904673462</v>
       </c>
       <c r="T9">
-        <v>0.03488107297181171</v>
+        <v>0.03409752904673462</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.9419353101778</v>
+        <v>14.943524</v>
       </c>
       <c r="H10">
-        <v>14.9419353101778</v>
+        <v>44.830572</v>
       </c>
       <c r="I10">
-        <v>0.2616109921017262</v>
+        <v>0.260138752398702</v>
       </c>
       <c r="J10">
-        <v>0.2616109921017262</v>
+        <v>0.260138752398702</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.8711224823691</v>
+        <v>1.906809666666667</v>
       </c>
       <c r="N10">
-        <v>1.8711224823691</v>
+        <v>5.720429</v>
       </c>
       <c r="O10">
-        <v>0.2591908097385658</v>
+        <v>0.241823716291372</v>
       </c>
       <c r="P10">
-        <v>0.2591908097385658</v>
+        <v>0.241823716291372</v>
       </c>
       <c r="Q10">
-        <v>27.9581910889784</v>
+        <v>28.49445601726534</v>
       </c>
       <c r="R10">
-        <v>27.9581910889784</v>
+        <v>256.450104155388</v>
       </c>
       <c r="S10">
-        <v>0.06780716487935594</v>
+        <v>0.06290771985645519</v>
       </c>
       <c r="T10">
-        <v>0.06780716487935594</v>
+        <v>0.0629077198564552</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>14.9419353101778</v>
+        <v>14.943524</v>
       </c>
       <c r="H11">
-        <v>14.9419353101778</v>
+        <v>44.830572</v>
       </c>
       <c r="I11">
-        <v>0.2616109921017262</v>
+        <v>0.260138752398702</v>
       </c>
       <c r="J11">
-        <v>0.2616109921017262</v>
+        <v>0.260138752398702</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.09651553310059</v>
+        <v>2.625210666666666</v>
       </c>
       <c r="N11">
-        <v>2.09651553310059</v>
+        <v>7.875632</v>
       </c>
       <c r="O11">
-        <v>0.2904126072846959</v>
+        <v>0.3329321277098712</v>
       </c>
       <c r="P11">
-        <v>0.2904126072846959</v>
+        <v>0.3329321277098712</v>
       </c>
       <c r="Q11">
-        <v>31.32599947237194</v>
+        <v>39.22989860238933</v>
       </c>
       <c r="R11">
-        <v>31.32599947237194</v>
+        <v>353.069087421504</v>
       </c>
       <c r="S11">
-        <v>0.07597513031059829</v>
+        <v>0.08660854833589121</v>
       </c>
       <c r="T11">
-        <v>0.07597513031059829</v>
+        <v>0.08660854833589123</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.36579404287518</v>
+        <v>1.473182333333333</v>
       </c>
       <c r="H12">
-        <v>1.36579404287518</v>
+        <v>4.419547</v>
       </c>
       <c r="I12">
-        <v>0.02391301576040297</v>
+        <v>0.02564534404663465</v>
       </c>
       <c r="J12">
-        <v>0.02391301576040297</v>
+        <v>0.02564534404663465</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.7697381550704619</v>
+        <v>0.7750113333333332</v>
       </c>
       <c r="N12">
-        <v>0.7697381550704619</v>
+        <v>2.325034</v>
       </c>
       <c r="O12">
-        <v>0.1066253318953106</v>
+        <v>0.09828779666416518</v>
       </c>
       <c r="P12">
-        <v>0.1066253318953106</v>
+        <v>0.09828779666416518</v>
       </c>
       <c r="Q12">
-        <v>1.051303786768969</v>
+        <v>1.141733004399777</v>
       </c>
       <c r="R12">
-        <v>1.051303786768969</v>
+        <v>10.275597039598</v>
       </c>
       <c r="S12">
-        <v>0.00254973324207076</v>
+        <v>0.002520624361038185</v>
       </c>
       <c r="T12">
-        <v>0.00254973324207076</v>
+        <v>0.002520624361038185</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.36579404287518</v>
+        <v>1.473182333333333</v>
       </c>
       <c r="H13">
-        <v>1.36579404287518</v>
+        <v>4.419547</v>
       </c>
       <c r="I13">
-        <v>0.02391301576040297</v>
+        <v>0.02564534404663465</v>
       </c>
       <c r="J13">
-        <v>0.02391301576040297</v>
+        <v>0.02564534404663465</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.51918167057483</v>
+        <v>1.544553333333333</v>
       </c>
       <c r="N13">
-        <v>1.51918167057483</v>
+        <v>4.63366</v>
       </c>
       <c r="O13">
-        <v>0.2104394186091577</v>
+        <v>0.1958819664103302</v>
       </c>
       <c r="P13">
-        <v>0.2104394186091577</v>
+        <v>0.1958819664103302</v>
       </c>
       <c r="Q13">
-        <v>2.074889275716267</v>
+        <v>2.275408683557777</v>
       </c>
       <c r="R13">
-        <v>2.074889275716267</v>
+        <v>20.47867815202</v>
       </c>
       <c r="S13">
-        <v>0.005032241133810825</v>
+        <v>0.00502346042112425</v>
       </c>
       <c r="T13">
-        <v>0.005032241133810825</v>
+        <v>0.00502346042112425</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.36579404287518</v>
+        <v>1.473182333333333</v>
       </c>
       <c r="H14">
-        <v>1.36579404287518</v>
+        <v>4.419547</v>
       </c>
       <c r="I14">
-        <v>0.02391301576040297</v>
+        <v>0.02564534404663465</v>
       </c>
       <c r="J14">
-        <v>0.02391301576040297</v>
+        <v>0.02564534404663465</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.962534858415599</v>
+        <v>1.033537666666667</v>
       </c>
       <c r="N14">
-        <v>0.962534858415599</v>
+        <v>3.100613</v>
       </c>
       <c r="O14">
-        <v>0.13333183247227</v>
+        <v>0.1310743929242614</v>
       </c>
       <c r="P14">
-        <v>0.13333183247227</v>
+        <v>0.1310743929242614</v>
       </c>
       <c r="Q14">
-        <v>1.31462437568373</v>
+        <v>1.522589431367889</v>
       </c>
       <c r="R14">
-        <v>1.31462437568373</v>
+        <v>13.703304882311</v>
       </c>
       <c r="S14">
-        <v>0.003188366211272802</v>
+        <v>0.003361447902246459</v>
       </c>
       <c r="T14">
-        <v>0.003188366211272802</v>
+        <v>0.003361447902246459</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.36579404287518</v>
+        <v>1.473182333333333</v>
       </c>
       <c r="H15">
-        <v>1.36579404287518</v>
+        <v>4.419547</v>
       </c>
       <c r="I15">
-        <v>0.02391301576040297</v>
+        <v>0.02564534404663465</v>
       </c>
       <c r="J15">
-        <v>0.02391301576040297</v>
+        <v>0.02564534404663465</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.8711224823691</v>
+        <v>1.906809666666667</v>
       </c>
       <c r="N15">
-        <v>1.8711224823691</v>
+        <v>5.720429</v>
       </c>
       <c r="O15">
-        <v>0.2591908097385658</v>
+        <v>0.241823716291372</v>
       </c>
       <c r="P15">
-        <v>0.2591908097385658</v>
+        <v>0.241823716291372</v>
       </c>
       <c r="Q15">
-        <v>2.555567939909536</v>
+        <v>2.809078313962555</v>
       </c>
       <c r="R15">
-        <v>2.555567939909536</v>
+        <v>25.281704825663</v>
       </c>
       <c r="S15">
-        <v>0.006198033918229931</v>
+        <v>0.006201652402928004</v>
       </c>
       <c r="T15">
-        <v>0.006198033918229931</v>
+        <v>0.006201652402928005</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.36579404287518</v>
+        <v>1.473182333333333</v>
       </c>
       <c r="H16">
-        <v>1.36579404287518</v>
+        <v>4.419547</v>
       </c>
       <c r="I16">
-        <v>0.02391301576040297</v>
+        <v>0.02564534404663465</v>
       </c>
       <c r="J16">
-        <v>0.02391301576040297</v>
+        <v>0.02564534404663465</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.09651553310059</v>
+        <v>2.625210666666666</v>
       </c>
       <c r="N16">
-        <v>2.09651553310059</v>
+        <v>7.875632</v>
       </c>
       <c r="O16">
-        <v>0.2904126072846959</v>
+        <v>0.3329321277098712</v>
       </c>
       <c r="P16">
-        <v>0.2904126072846959</v>
+        <v>0.3329321277098712</v>
       </c>
       <c r="Q16">
-        <v>2.863408425904068</v>
+        <v>3.867413975411555</v>
       </c>
       <c r="R16">
-        <v>2.863408425904068</v>
+        <v>34.80672577870399</v>
       </c>
       <c r="S16">
-        <v>0.006944641255018652</v>
+        <v>0.008538158959297751</v>
       </c>
       <c r="T16">
-        <v>0.006944641255018652</v>
+        <v>0.008538158959297753</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.57171355887276</v>
+        <v>2.680112333333334</v>
       </c>
       <c r="H17">
-        <v>2.57171355887276</v>
+        <v>8.040337000000001</v>
       </c>
       <c r="I17">
-        <v>0.0450268671073612</v>
+        <v>0.0466557338604808</v>
       </c>
       <c r="J17">
-        <v>0.0450268671073612</v>
+        <v>0.0466557338604808</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.7697381550704619</v>
+        <v>0.7750113333333332</v>
       </c>
       <c r="N17">
-        <v>0.7697381550704619</v>
+        <v>2.325034</v>
       </c>
       <c r="O17">
-        <v>0.1066253318953106</v>
+        <v>0.09828779666416518</v>
       </c>
       <c r="P17">
-        <v>0.1066253318953106</v>
+        <v>0.09828779666416518</v>
       </c>
       <c r="Q17">
-        <v>1.97954605017641</v>
+        <v>2.077117432939778</v>
       </c>
       <c r="R17">
-        <v>1.97954605017641</v>
+        <v>18.694056896458</v>
       </c>
       <c r="S17">
-        <v>0.004801004649528432</v>
+        <v>0.004585689282896343</v>
       </c>
       <c r="T17">
-        <v>0.004801004649528432</v>
+        <v>0.004585689282896343</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.57171355887276</v>
+        <v>2.680112333333334</v>
       </c>
       <c r="H18">
-        <v>2.57171355887276</v>
+        <v>8.040337000000001</v>
       </c>
       <c r="I18">
-        <v>0.0450268671073612</v>
+        <v>0.0466557338604808</v>
       </c>
       <c r="J18">
-        <v>0.0450268671073612</v>
+        <v>0.0466557338604808</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.51918167057483</v>
+        <v>1.544553333333333</v>
       </c>
       <c r="N18">
-        <v>1.51918167057483</v>
+        <v>4.63366</v>
       </c>
       <c r="O18">
-        <v>0.2104394186091577</v>
+        <v>0.1958819664103302</v>
       </c>
       <c r="P18">
-        <v>0.2104394186091577</v>
+        <v>0.1958819664103302</v>
       </c>
       <c r="Q18">
-        <v>3.906900100608261</v>
+        <v>4.139576438157778</v>
       </c>
       <c r="R18">
-        <v>3.906900100608261</v>
+        <v>37.25618794342</v>
       </c>
       <c r="S18">
-        <v>0.009475427735864895</v>
+        <v>0.009139016892908006</v>
       </c>
       <c r="T18">
-        <v>0.009475427735864895</v>
+        <v>0.009139016892908006</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.57171355887276</v>
+        <v>2.680112333333334</v>
       </c>
       <c r="H19">
-        <v>2.57171355887276</v>
+        <v>8.040337000000001</v>
       </c>
       <c r="I19">
-        <v>0.0450268671073612</v>
+        <v>0.0466557338604808</v>
       </c>
       <c r="J19">
-        <v>0.0450268671073612</v>
+        <v>0.0466557338604808</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.962534858415599</v>
+        <v>1.033537666666667</v>
       </c>
       <c r="N19">
-        <v>0.962534858415599</v>
+        <v>3.100613</v>
       </c>
       <c r="O19">
-        <v>0.13333183247227</v>
+        <v>0.1310743929242614</v>
       </c>
       <c r="P19">
-        <v>0.13333183247227</v>
+        <v>0.1310743929242614</v>
       </c>
       <c r="Q19">
-        <v>2.475363946275068</v>
+        <v>2.769997047397889</v>
       </c>
       <c r="R19">
-        <v>2.475363946275068</v>
+        <v>24.929973426581</v>
       </c>
       <c r="S19">
-        <v>0.00600351470190985</v>
+        <v>0.006115371992198429</v>
       </c>
       <c r="T19">
-        <v>0.00600351470190985</v>
+        <v>0.006115371992198429</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.57171355887276</v>
+        <v>2.680112333333334</v>
       </c>
       <c r="H20">
-        <v>2.57171355887276</v>
+        <v>8.040337000000001</v>
       </c>
       <c r="I20">
-        <v>0.0450268671073612</v>
+        <v>0.0466557338604808</v>
       </c>
       <c r="J20">
-        <v>0.0450268671073612</v>
+        <v>0.0466557338604808</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.8711224823691</v>
+        <v>1.906809666666667</v>
       </c>
       <c r="N20">
-        <v>1.8711224823691</v>
+        <v>5.720429</v>
       </c>
       <c r="O20">
-        <v>0.2591908097385658</v>
+        <v>0.241823716291372</v>
       </c>
       <c r="P20">
-        <v>0.2591908097385658</v>
+        <v>0.241823716291372</v>
       </c>
       <c r="Q20">
-        <v>4.811991058220271</v>
+        <v>5.110464104952556</v>
       </c>
       <c r="R20">
-        <v>4.811991058220271</v>
+        <v>45.99417694457301</v>
       </c>
       <c r="S20">
-        <v>0.01167055014554774</v>
+        <v>0.01128246294844267</v>
       </c>
       <c r="T20">
-        <v>0.01167055014554774</v>
+        <v>0.01128246294844267</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.57171355887276</v>
+        <v>2.680112333333334</v>
       </c>
       <c r="H21">
-        <v>2.57171355887276</v>
+        <v>8.040337000000001</v>
       </c>
       <c r="I21">
-        <v>0.0450268671073612</v>
+        <v>0.0466557338604808</v>
       </c>
       <c r="J21">
-        <v>0.0450268671073612</v>
+        <v>0.0466557338604808</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.09651553310059</v>
+        <v>2.625210666666666</v>
       </c>
       <c r="N21">
-        <v>2.09651553310059</v>
+        <v>7.875632</v>
       </c>
       <c r="O21">
-        <v>0.2904126072846959</v>
+        <v>0.3329321277098712</v>
       </c>
       <c r="P21">
-        <v>0.2904126072846959</v>
+        <v>0.3329321277098712</v>
       </c>
       <c r="Q21">
-        <v>5.39163742286214</v>
+        <v>7.035859485331556</v>
       </c>
       <c r="R21">
-        <v>5.39163742286214</v>
+        <v>63.322735367984</v>
       </c>
       <c r="S21">
-        <v>0.01307636987451028</v>
+        <v>0.01553319274403536</v>
       </c>
       <c r="T21">
-        <v>0.01307636987451028</v>
+        <v>0.01553319274403536</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.48598164784237</v>
+        <v>4.555109333333333</v>
       </c>
       <c r="H22">
-        <v>4.48598164784237</v>
+        <v>13.665328</v>
       </c>
       <c r="I22">
-        <v>0.07854284502508757</v>
+        <v>0.07929591835319542</v>
       </c>
       <c r="J22">
-        <v>0.07854284502508757</v>
+        <v>0.07929591835319544</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.7697381550704619</v>
+        <v>0.7750113333333332</v>
       </c>
       <c r="N22">
-        <v>0.7697381550704619</v>
+        <v>2.325034</v>
       </c>
       <c r="O22">
-        <v>0.1066253318953106</v>
+        <v>0.09828779666416518</v>
       </c>
       <c r="P22">
-        <v>0.1066253318953106</v>
+        <v>0.09828779666416518</v>
       </c>
       <c r="Q22">
-        <v>3.453031237290137</v>
+        <v>3.530261357905777</v>
       </c>
       <c r="R22">
-        <v>3.453031237290137</v>
+        <v>31.77235222115199</v>
       </c>
       <c r="S22">
-        <v>0.008374656918801907</v>
+        <v>0.007793821099397116</v>
       </c>
       <c r="T22">
-        <v>0.008374656918801907</v>
+        <v>0.007793821099397117</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.48598164784237</v>
+        <v>4.555109333333333</v>
       </c>
       <c r="H23">
-        <v>4.48598164784237</v>
+        <v>13.665328</v>
       </c>
       <c r="I23">
-        <v>0.07854284502508757</v>
+        <v>0.07929591835319542</v>
       </c>
       <c r="J23">
-        <v>0.07854284502508757</v>
+        <v>0.07929591835319544</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.51918167057483</v>
+        <v>1.544553333333333</v>
       </c>
       <c r="N23">
-        <v>1.51918167057483</v>
+        <v>4.63366</v>
       </c>
       <c r="O23">
-        <v>0.2104394186091577</v>
+        <v>0.1958819664103302</v>
       </c>
       <c r="P23">
-        <v>0.2104394186091577</v>
+        <v>0.1958819664103302</v>
       </c>
       <c r="Q23">
-        <v>6.8150210939372</v>
+        <v>7.035609304497777</v>
       </c>
       <c r="R23">
-        <v>6.8150210939372</v>
+        <v>63.32048374048</v>
       </c>
       <c r="S23">
-        <v>0.0165285106429886</v>
+        <v>0.01553264041533691</v>
       </c>
       <c r="T23">
-        <v>0.0165285106429886</v>
+        <v>0.01553264041533691</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.48598164784237</v>
+        <v>4.555109333333333</v>
       </c>
       <c r="H24">
-        <v>4.48598164784237</v>
+        <v>13.665328</v>
       </c>
       <c r="I24">
-        <v>0.07854284502508757</v>
+        <v>0.07929591835319542</v>
       </c>
       <c r="J24">
-        <v>0.07854284502508757</v>
+        <v>0.07929591835319544</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.962534858415599</v>
+        <v>1.033537666666667</v>
       </c>
       <c r="N24">
-        <v>0.962534858415599</v>
+        <v>3.100613</v>
       </c>
       <c r="O24">
-        <v>0.13333183247227</v>
+        <v>0.1310743929242614</v>
       </c>
       <c r="P24">
-        <v>0.13333183247227</v>
+        <v>0.1310743929242614</v>
       </c>
       <c r="Q24">
-        <v>4.317913710260931</v>
+        <v>4.707877071784889</v>
       </c>
       <c r="R24">
-        <v>4.317913710260931</v>
+        <v>42.370893646064</v>
       </c>
       <c r="S24">
-        <v>0.01047226145478044</v>
+        <v>0.01039366435951689</v>
       </c>
       <c r="T24">
-        <v>0.01047226145478044</v>
+        <v>0.01039366435951689</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.48598164784237</v>
+        <v>4.555109333333333</v>
       </c>
       <c r="H25">
-        <v>4.48598164784237</v>
+        <v>13.665328</v>
       </c>
       <c r="I25">
-        <v>0.07854284502508757</v>
+        <v>0.07929591835319542</v>
       </c>
       <c r="J25">
-        <v>0.07854284502508757</v>
+        <v>0.07929591835319544</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.8711224823691</v>
+        <v>1.906809666666667</v>
       </c>
       <c r="N25">
-        <v>1.8711224823691</v>
+        <v>5.720429</v>
       </c>
       <c r="O25">
-        <v>0.2591908097385658</v>
+        <v>0.241823716291372</v>
       </c>
       <c r="P25">
-        <v>0.2591908097385658</v>
+        <v>0.241823716291372</v>
       </c>
       <c r="Q25">
-        <v>8.39382111677304</v>
+        <v>8.685726509523557</v>
       </c>
       <c r="R25">
-        <v>8.39382111677304</v>
+        <v>78.171538585712</v>
       </c>
       <c r="S25">
-        <v>0.02035758360122313</v>
+        <v>0.01917563366290693</v>
       </c>
       <c r="T25">
-        <v>0.02035758360122313</v>
+        <v>0.01917563366290694</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>4.48598164784237</v>
+        <v>4.555109333333333</v>
       </c>
       <c r="H26">
-        <v>4.48598164784237</v>
+        <v>13.665328</v>
       </c>
       <c r="I26">
-        <v>0.07854284502508757</v>
+        <v>0.07929591835319542</v>
       </c>
       <c r="J26">
-        <v>0.07854284502508757</v>
+        <v>0.07929591835319544</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.09651553310059</v>
+        <v>2.625210666666666</v>
       </c>
       <c r="N26">
-        <v>2.09651553310059</v>
+        <v>7.875632</v>
       </c>
       <c r="O26">
-        <v>0.2904126072846959</v>
+        <v>0.3329321277098712</v>
       </c>
       <c r="P26">
-        <v>0.2904126072846959</v>
+        <v>0.3329321277098712</v>
       </c>
       <c r="Q26">
-        <v>9.404930205905709</v>
+        <v>11.95812160969955</v>
       </c>
       <c r="R26">
-        <v>9.404930205905709</v>
+        <v>107.623094487296</v>
       </c>
       <c r="S26">
-        <v>0.02280983240729349</v>
+        <v>0.02640015881603758</v>
       </c>
       <c r="T26">
-        <v>0.02280983240729349</v>
+        <v>0.02640015881603758</v>
       </c>
     </row>
   </sheetData>
